--- a/biology/Médecine/Examen_clinique_de_l'appareil_digestif/Examen_clinique_de_l'appareil_digestif.xlsx
+++ b/biology/Médecine/Examen_clinique_de_l'appareil_digestif/Examen_clinique_de_l'appareil_digestif.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Examen_clinique_de_l%27appareil_digestif</t>
+          <t>Examen_clinique_de_l'appareil_digestif</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'examen de l'appareil digestif est en médecine une partie de l'examen clinique qui permet d'avoir une idée des problèmes gastro-entérologiques que peut avoir le patient.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Examen_clinique_de_l%27appareil_digestif</t>
+          <t>Examen_clinique_de_l'appareil_digestif</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Les signes fonctionnels</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>On pourra demander au patient :
 la fréquence des selles, si elles sont molles, moulées, leur couleur (incolores, noires, voir méléna, rouge sang) ;
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Examen_clinique_de_l%27appareil_digestif</t>
+          <t>Examen_clinique_de_l'appareil_digestif</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,25 +561,134 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inspection
-On inspectera la forme de l'abdomen.
+          <t>Inspection</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>On inspectera la forme de l'abdomen.
 On recherchera :
 un ictère ;
 un ou des angiomes stellaires ;
 une circulation veineuse collatérale ;
 une ou des cicatrices abdominales ;
 une respiration abdominale (pour éliminer la péritonite) ;
-une hernie abdominale (ombilicale, inguinale ou de la ligne blanche).
-Palpation
-On palpera les neuf quadrants de l'abdomen en commencent par un endroit où le patient n'a pas de douleur (si celui-ci avait des douleurs abdominales), à la recherche de masse, d'une défense, d'une contracture, d'une hernie abdominale, etc. On n'omettra pas de palper également les fosses lombaires droite et gauche.
+une hernie abdominale (ombilicale, inguinale ou de la ligne blanche).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Examen_clinique_de_l'appareil_digestif</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Examen_clinique_de_l%27appareil_digestif</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Les signes physiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Palpation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On palpera les neuf quadrants de l'abdomen en commencent par un endroit où le patient n'a pas de douleur (si celui-ci avait des douleurs abdominales), à la recherche de masse, d'une défense, d'une contracture, d'une hernie abdominale, etc. On n'omettra pas de palper également les fosses lombaires droite et gauche.
 On recherchera le Signe du flot ainsi que le Signe du glaçon (ascite)
 Une douleur abdominale pouvant être due à une torsion testiculaire, il faut donc rechercher celle-ci dans ce cas.
 Un toucher rectal peut être effectué pour étendre le diagnostic.
-Percussion
-Recherche d'une ascite (par la matité de l'abdomen).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Examen_clinique_de_l'appareil_digestif</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Examen_clinique_de_l%27appareil_digestif</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les signes physiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Percussion</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recherche d'une ascite (par la matité de l'abdomen).
 Recherche d'une hépatomégalie.
-Auscultation
-Recherche de bruits hydro-aériques et d'un souffle (dû, s'il est présent, à l'aorte abdominale).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Examen_clinique_de_l'appareil_digestif</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Examen_clinique_de_l%27appareil_digestif</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les signes physiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Auscultation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recherche de bruits hydro-aériques et d'un souffle (dû, s'il est présent, à l'aorte abdominale).
 </t>
         </is>
       </c>
